--- a/data/VEGFA165_NRP1_02.3-39nm_Herve2008.xlsx
+++ b/data/VEGFA165_NRP1_02.3-39nm_Herve2008.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A055683-C080-47BB-87E7-6101292643B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A7DD-17AE-4000-80BD-C816A1AC58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,34 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>2.3nM</t>
+    <t>RU 2.3nM</t>
   </si>
   <si>
-    <t>4.6nM</t>
+    <t>Time 2.3nM</t>
   </si>
   <si>
-    <t>9.2nM</t>
+    <t>Time 4.6nM</t>
   </si>
   <si>
-    <t>19.5nM</t>
+    <t>RU 4.6nM</t>
   </si>
   <si>
-    <t>39nM</t>
+    <t>Time 9.2nM</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>RU 9.2nM</t>
   </si>
   <si>
-    <t>RU</t>
+    <t>Time 19.5nM</t>
+  </si>
+  <si>
+    <t>RU 19.5nM</t>
+  </si>
+  <si>
+    <t>Time 39nM</t>
+  </si>
+  <si>
+    <t>RU 39nM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,11 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,14 +175,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$B$1:$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3nM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RU</c:v>
+                  <c:v>RU 2.3nM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -202,7 +210,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -334,7 +342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$53</c:f>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -476,14 +484,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$D$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6nM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RU</c:v>
+                  <c:v>RU 4.6nM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -514,7 +519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$53</c:f>
+              <c:f>Sheet1!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -652,7 +657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$53</c:f>
+              <c:f>Sheet1!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -800,14 +805,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:f>Sheet1!$F$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.2nM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RU</c:v>
+                  <c:v>RU 9.2nM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -838,7 +840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$53</c:f>
+              <c:f>Sheet1!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -982,7 +984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$53</c:f>
+              <c:f>Sheet1!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1136,14 +1138,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$H$2</c:f>
+              <c:f>Sheet1!$H$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19.5nM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RU</c:v>
+                  <c:v>RU 19.5nM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1174,7 +1173,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$53</c:f>
+              <c:f>Sheet1!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1324,7 +1323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$53</c:f>
+              <c:f>Sheet1!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1484,14 +1483,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$J$2</c:f>
+              <c:f>Sheet1!$J$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39nM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RU</c:v>
+                  <c:v>RU 39nM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1522,7 +1518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$53</c:f>
+              <c:f>Sheet1!$I$2:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1684,7 +1680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$53</c:f>
+              <c:f>Sheet1!$J$2:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2959,1540 +2955,1511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-496.36399999999998</v>
+      </c>
+      <c r="B2">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-498.18200000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-501.81799999999998</v>
+      </c>
+      <c r="F2">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="G2">
+        <v>-496.36399999999998</v>
+      </c>
+      <c r="H2">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="I2">
+        <v>-496.36399999999998</v>
+      </c>
+      <c r="J2">
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-496.36399999999998</v>
+        <v>-444.54500000000002</v>
       </c>
       <c r="B3">
-        <v>1.7969999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="C3">
-        <v>-498.18200000000002</v>
+        <v>-451.81799999999998</v>
       </c>
       <c r="D3">
-        <v>1.7969999999999999</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="E3">
-        <v>-501.81799999999998</v>
+        <v>-453.63600000000002</v>
       </c>
       <c r="F3">
-        <v>1.7969999999999999</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="G3">
-        <v>-496.36399999999998</v>
+        <v>-446.36399999999998</v>
       </c>
       <c r="H3">
-        <v>1.0569999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="I3">
-        <v>-496.36399999999998</v>
+        <v>-444.54500000000002</v>
       </c>
       <c r="J3">
-        <v>1.7969999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-444.54500000000002</v>
+        <v>-390</v>
       </c>
       <c r="B4">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C4">
+        <v>-391.81799999999998</v>
+      </c>
+      <c r="D4">
         <v>1.427</v>
       </c>
-      <c r="C4">
-        <v>-451.81799999999998</v>
-      </c>
-      <c r="D4">
-        <v>2.1669999999999998</v>
-      </c>
       <c r="E4">
-        <v>-453.63600000000002</v>
+        <v>-400.90899999999999</v>
       </c>
       <c r="F4">
-        <v>2.1669999999999998</v>
+        <v>1.427</v>
       </c>
       <c r="G4">
-        <v>-446.36399999999998</v>
+        <v>-390</v>
       </c>
       <c r="H4">
-        <v>1.427</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="I4">
-        <v>-444.54500000000002</v>
+        <v>-390</v>
       </c>
       <c r="J4">
-        <v>1.427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-390</v>
+        <v>-331.81799999999998</v>
       </c>
       <c r="B5">
-        <v>0.68700000000000006</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>-391.81799999999998</v>
+        <v>-331.81799999999998</v>
       </c>
       <c r="D5">
         <v>1.427</v>
       </c>
       <c r="E5">
-        <v>-400.90899999999999</v>
+        <v>-340.90899999999999</v>
       </c>
       <c r="F5">
+        <v>-0.79300000000000004</v>
+      </c>
+      <c r="G5">
+        <v>-333.63600000000002</v>
+      </c>
+      <c r="H5">
+        <v>-0.79300000000000004</v>
+      </c>
+      <c r="I5">
+        <v>-331.81799999999998</v>
+      </c>
+      <c r="J5">
         <v>1.427</v>
       </c>
-      <c r="G5">
-        <v>-390</v>
-      </c>
-      <c r="H5">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="I5">
-        <v>-390</v>
-      </c>
-      <c r="J5">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-331.81799999999998</v>
+        <v>-280.90899999999999</v>
       </c>
       <c r="B6">
         <v>-5.2999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>-331.81799999999998</v>
+        <v>-266.36399999999998</v>
       </c>
       <c r="D6">
-        <v>1.427</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E6">
-        <v>-340.90899999999999</v>
+        <v>-275.45499999999998</v>
       </c>
       <c r="F6">
         <v>-0.79300000000000004</v>
       </c>
       <c r="G6">
-        <v>-333.63600000000002</v>
+        <v>-290</v>
       </c>
       <c r="H6">
+        <v>-1.5329999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-273.63600000000002</v>
+      </c>
+      <c r="J6">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-219.09100000000001</v>
+      </c>
+      <c r="B7">
         <v>-0.79300000000000004</v>
       </c>
-      <c r="I6">
-        <v>-331.81799999999998</v>
-      </c>
-      <c r="J6">
-        <v>1.427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>-280.90899999999999</v>
-      </c>
-      <c r="B7">
+      <c r="C7">
+        <v>-206.364</v>
+      </c>
+      <c r="D7">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="C7">
-        <v>-266.36399999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.68700000000000006</v>
-      </c>
       <c r="E7">
-        <v>-275.45499999999998</v>
+        <v>-219.09100000000001</v>
       </c>
       <c r="F7">
         <v>-0.79300000000000004</v>
       </c>
       <c r="G7">
-        <v>-290</v>
+        <v>-248.18199999999999</v>
       </c>
       <c r="H7">
         <v>-1.5329999999999999</v>
       </c>
       <c r="I7">
-        <v>-273.63600000000002</v>
+        <v>-213.636</v>
       </c>
       <c r="J7">
+        <v>-0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-160.90899999999999</v>
+      </c>
+      <c r="B8">
         <v>-5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>-219.09100000000001</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
+        <v>-133.636</v>
+      </c>
+      <c r="D8">
         <v>-0.79300000000000004</v>
       </c>
-      <c r="C8">
-        <v>-206.364</v>
-      </c>
-      <c r="D8">
-        <v>-5.2999999999999999E-2</v>
-      </c>
       <c r="E8">
-        <v>-219.09100000000001</v>
+        <v>-164.54499999999999</v>
       </c>
       <c r="F8">
         <v>-0.79300000000000004</v>
       </c>
       <c r="G8">
-        <v>-248.18199999999999</v>
+        <v>-197.273</v>
       </c>
       <c r="H8">
-        <v>-1.5329999999999999</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="I8">
-        <v>-213.636</v>
+        <v>-155.45500000000001</v>
       </c>
       <c r="J8">
-        <v>-0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-160.90899999999999</v>
+        <v>-100.90900000000001</v>
       </c>
       <c r="B9">
         <v>-5.2999999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>-133.636</v>
+        <v>-82.727000000000004</v>
       </c>
       <c r="D9">
-        <v>-0.79300000000000004</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>-164.54499999999999</v>
+        <v>-108.182</v>
       </c>
       <c r="F9">
         <v>-0.79300000000000004</v>
       </c>
       <c r="G9">
-        <v>-197.273</v>
+        <v>-144.54499999999999</v>
       </c>
       <c r="H9">
         <v>-0.79300000000000004</v>
       </c>
       <c r="I9">
-        <v>-155.45500000000001</v>
+        <v>-95.454999999999998</v>
       </c>
       <c r="J9">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-100.90900000000001</v>
+        <v>-51.817999999999998</v>
       </c>
       <c r="B10">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.79300000000000004</v>
       </c>
       <c r="C10">
-        <v>-82.727000000000004</v>
+        <v>-37.273000000000003</v>
       </c>
       <c r="D10">
         <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>-108.182</v>
+        <v>-59.091000000000001</v>
       </c>
       <c r="F10">
-        <v>-0.79300000000000004</v>
+        <v>-1.5329999999999999</v>
       </c>
       <c r="G10">
-        <v>-144.54499999999999</v>
+        <v>-95.454999999999998</v>
       </c>
       <c r="H10">
-        <v>-0.79300000000000004</v>
+        <v>-1.5329999999999999</v>
       </c>
       <c r="I10">
-        <v>-95.454999999999998</v>
+        <v>-48.182000000000002</v>
       </c>
       <c r="J10">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-51.817999999999998</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="B11">
         <v>-0.79300000000000004</v>
       </c>
       <c r="C11">
-        <v>-37.273000000000003</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="D11">
-        <v>-5.2999999999999999E-2</v>
+        <v>-1.5329999999999999</v>
       </c>
       <c r="E11">
-        <v>-59.091000000000001</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="F11">
         <v>-1.5329999999999999</v>
       </c>
       <c r="G11">
-        <v>-95.454999999999998</v>
+        <v>-40.908999999999999</v>
       </c>
       <c r="H11">
         <v>-1.5329999999999999</v>
       </c>
       <c r="I11">
-        <v>-48.182000000000002</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="J11">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>-1.5329999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-0.90900000000000003</v>
+        <v>13.635999999999999</v>
       </c>
       <c r="B12">
-        <v>-0.79300000000000004</v>
+        <v>11.786</v>
       </c>
       <c r="C12">
+        <v>13.635999999999999</v>
+      </c>
+      <c r="D12">
+        <v>22.146000000000001</v>
+      </c>
+      <c r="E12">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="F12">
+        <v>22.885999999999999</v>
+      </c>
+      <c r="G12">
         <v>2.7269999999999999</v>
-      </c>
-      <c r="D12">
-        <v>-1.5329999999999999</v>
-      </c>
-      <c r="E12">
-        <v>-0.90900000000000003</v>
-      </c>
-      <c r="F12">
-        <v>-1.5329999999999999</v>
-      </c>
-      <c r="G12">
-        <v>-40.908999999999999</v>
       </c>
       <c r="H12">
         <v>-1.5329999999999999</v>
       </c>
       <c r="I12">
-        <v>4.5449999999999999</v>
+        <v>11.818</v>
       </c>
       <c r="J12">
-        <v>-1.5329999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>26.585999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>68.182000000000002</v>
+      </c>
+      <c r="B13">
+        <v>25.846</v>
+      </c>
+      <c r="C13">
+        <v>53.636000000000003</v>
+      </c>
+      <c r="D13">
+        <v>36.945</v>
+      </c>
+      <c r="E13">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="F13">
+        <v>43.604999999999997</v>
+      </c>
+      <c r="G13">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="H13">
+        <v>22.885999999999999</v>
+      </c>
+      <c r="I13">
         <v>13.635999999999999</v>
       </c>
-      <c r="B13">
-        <v>11.786</v>
-      </c>
-      <c r="C13">
-        <v>13.635999999999999</v>
-      </c>
-      <c r="D13">
-        <v>22.146000000000001</v>
-      </c>
-      <c r="E13">
-        <v>6.3639999999999999</v>
-      </c>
-      <c r="F13">
-        <v>22.885999999999999</v>
-      </c>
-      <c r="G13">
-        <v>2.7269999999999999</v>
-      </c>
-      <c r="H13">
-        <v>-1.5329999999999999</v>
-      </c>
-      <c r="I13">
-        <v>11.818</v>
-      </c>
       <c r="J13">
-        <v>26.585999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>45.825000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>68.182000000000002</v>
+        <v>119.09099999999999</v>
       </c>
       <c r="B14">
-        <v>25.846</v>
+        <v>36.204999999999998</v>
       </c>
       <c r="C14">
-        <v>53.636000000000003</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>36.945</v>
+        <v>51.003999999999998</v>
       </c>
       <c r="E14">
-        <v>20.908999999999999</v>
+        <v>31.818000000000001</v>
       </c>
       <c r="F14">
+        <v>60.624000000000002</v>
+      </c>
+      <c r="G14">
+        <v>8.1820000000000004</v>
+      </c>
+      <c r="H14">
+        <v>47.304000000000002</v>
+      </c>
+      <c r="I14">
+        <v>26.364000000000001</v>
+      </c>
+      <c r="J14">
+        <v>68.763000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>168.18199999999999</v>
+      </c>
+      <c r="B15">
+        <v>45.085000000000001</v>
+      </c>
+      <c r="C15">
+        <v>124.545</v>
+      </c>
+      <c r="D15">
+        <v>63.584000000000003</v>
+      </c>
+      <c r="E15">
+        <v>48.182000000000002</v>
+      </c>
+      <c r="F15">
+        <v>71.722999999999999</v>
+      </c>
+      <c r="G15">
+        <v>28.181999999999999</v>
+      </c>
+      <c r="H15">
+        <v>75.423000000000002</v>
+      </c>
+      <c r="I15">
+        <v>31.818000000000001</v>
+      </c>
+      <c r="J15">
+        <v>92.441999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>226.364</v>
+      </c>
+      <c r="B16">
+        <v>51.744</v>
+      </c>
+      <c r="C16">
+        <v>171.81800000000001</v>
+      </c>
+      <c r="D16">
+        <v>75.423000000000002</v>
+      </c>
+      <c r="E16">
+        <v>60.908999999999999</v>
+      </c>
+      <c r="F16">
+        <v>83.561999999999998</v>
+      </c>
+      <c r="G16">
+        <v>35.454999999999998</v>
+      </c>
+      <c r="H16">
+        <v>102.06100000000001</v>
+      </c>
+      <c r="I16">
+        <v>40.908999999999999</v>
+      </c>
+      <c r="J16">
+        <v>125.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>282.72699999999998</v>
+      </c>
+      <c r="B17">
+        <v>56.183999999999997</v>
+      </c>
+      <c r="C17">
+        <v>226.364</v>
+      </c>
+      <c r="D17">
+        <v>83.561999999999998</v>
+      </c>
+      <c r="E17">
+        <v>86.364000000000004</v>
+      </c>
+      <c r="F17">
+        <v>99.840999999999994</v>
+      </c>
+      <c r="G17">
+        <v>62.726999999999997</v>
+      </c>
+      <c r="H17">
+        <v>135.35900000000001</v>
+      </c>
+      <c r="I17">
+        <v>46.363999999999997</v>
+      </c>
+      <c r="J17">
+        <v>149.41900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>350</v>
+      </c>
+      <c r="B18">
+        <v>60.624000000000002</v>
+      </c>
+      <c r="C18">
+        <v>277.27300000000002</v>
+      </c>
+      <c r="D18">
+        <v>88.742000000000004</v>
+      </c>
+      <c r="E18">
+        <v>113.636</v>
+      </c>
+      <c r="F18">
+        <v>110.20099999999999</v>
+      </c>
+      <c r="G18">
+        <v>97.272999999999996</v>
+      </c>
+      <c r="H18">
+        <v>158.298</v>
+      </c>
+      <c r="I18">
+        <v>51.817999999999998</v>
+      </c>
+      <c r="J18">
+        <v>174.577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>411.81799999999998</v>
+      </c>
+      <c r="B19">
+        <v>62.103999999999999</v>
+      </c>
+      <c r="C19">
+        <v>339.09100000000001</v>
+      </c>
+      <c r="D19">
+        <v>93.182000000000002</v>
+      </c>
+      <c r="E19">
+        <v>146.364</v>
+      </c>
+      <c r="F19">
+        <v>120.56</v>
+      </c>
+      <c r="G19">
+        <v>164.54499999999999</v>
+      </c>
+      <c r="H19">
+        <v>180.49700000000001</v>
+      </c>
+      <c r="I19">
+        <v>59.091000000000001</v>
+      </c>
+      <c r="J19">
+        <v>198.256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>477.27300000000002</v>
+      </c>
+      <c r="B20">
+        <v>65.063000000000002</v>
+      </c>
+      <c r="C20">
+        <v>413.63600000000002</v>
+      </c>
+      <c r="D20">
+        <v>97.622</v>
+      </c>
+      <c r="E20">
+        <v>206.364</v>
+      </c>
+      <c r="F20">
+        <v>131.66</v>
+      </c>
+      <c r="G20">
+        <v>233.636</v>
+      </c>
+      <c r="H20">
+        <v>189.376</v>
+      </c>
+      <c r="I20">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>218.23500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>530</v>
+      </c>
+      <c r="B21">
+        <v>68.022999999999996</v>
+      </c>
+      <c r="C21">
+        <v>479.09100000000001</v>
+      </c>
+      <c r="D21">
+        <v>100.581</v>
+      </c>
+      <c r="E21">
+        <v>266.36399999999998</v>
+      </c>
+      <c r="F21">
+        <v>138.31899999999999</v>
+      </c>
+      <c r="G21">
+        <v>306.36399999999998</v>
+      </c>
+      <c r="H21">
+        <v>196.77600000000001</v>
+      </c>
+      <c r="I21">
+        <v>97.272999999999996</v>
+      </c>
+      <c r="J21">
+        <v>235.994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>597.27300000000002</v>
+      </c>
+      <c r="B22">
+        <v>70.983000000000004</v>
+      </c>
+      <c r="C22">
+        <v>542.72699999999998</v>
+      </c>
+      <c r="D22">
+        <v>104.28100000000001</v>
+      </c>
+      <c r="E22">
+        <v>330</v>
+      </c>
+      <c r="F22">
+        <v>143.499</v>
+      </c>
+      <c r="G22">
+        <v>402.72699999999998</v>
+      </c>
+      <c r="H22">
+        <v>201.21600000000001</v>
+      </c>
+      <c r="I22">
+        <v>137.273</v>
+      </c>
+      <c r="J22">
+        <v>247.833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>620.90899999999999</v>
+      </c>
+      <c r="B23">
+        <v>59.884</v>
+      </c>
+      <c r="C23">
+        <v>600.90899999999999</v>
+      </c>
+      <c r="D23">
+        <v>107.241</v>
+      </c>
+      <c r="E23">
+        <v>393.63600000000002</v>
+      </c>
+      <c r="F23">
+        <v>147.93899999999999</v>
+      </c>
+      <c r="G23">
+        <v>459.09100000000001</v>
+      </c>
+      <c r="H23">
+        <v>205.655</v>
+      </c>
+      <c r="I23">
+        <v>184.54499999999999</v>
+      </c>
+      <c r="J23">
+        <v>255.97300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>662.72699999999998</v>
+      </c>
+      <c r="B24">
+        <v>52.484000000000002</v>
+      </c>
+      <c r="C24">
+        <v>622.72699999999998</v>
+      </c>
+      <c r="D24">
+        <v>90.221999999999994</v>
+      </c>
+      <c r="E24">
+        <v>459.09100000000001</v>
+      </c>
+      <c r="F24">
+        <v>152.37799999999999</v>
+      </c>
+      <c r="G24">
+        <v>517.27300000000002</v>
+      </c>
+      <c r="H24">
+        <v>208.61500000000001</v>
+      </c>
+      <c r="I24">
+        <v>239.09100000000001</v>
+      </c>
+      <c r="J24">
+        <v>263.37200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>710</v>
+      </c>
+      <c r="B25">
+        <v>48.783999999999999</v>
+      </c>
+      <c r="C25">
+        <v>662.72699999999998</v>
+      </c>
+      <c r="D25">
+        <v>77.643000000000001</v>
+      </c>
+      <c r="E25">
+        <v>517.27300000000002</v>
+      </c>
+      <c r="F25">
+        <v>156.078</v>
+      </c>
+      <c r="G25">
+        <v>555.45500000000004</v>
+      </c>
+      <c r="H25">
+        <v>212.315</v>
+      </c>
+      <c r="I25">
+        <v>308.18200000000002</v>
+      </c>
+      <c r="J25">
+        <v>270.03199999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>755.45500000000004</v>
+      </c>
+      <c r="B26">
         <v>43.604999999999997</v>
       </c>
-      <c r="G14">
-        <v>6.3639999999999999</v>
-      </c>
-      <c r="H14">
-        <v>22.885999999999999</v>
-      </c>
-      <c r="I14">
-        <v>13.635999999999999</v>
-      </c>
-      <c r="J14">
-        <v>45.825000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>119.09099999999999</v>
-      </c>
-      <c r="B15">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-      <c r="D15">
-        <v>51.003999999999998</v>
-      </c>
-      <c r="E15">
-        <v>31.818000000000001</v>
-      </c>
-      <c r="F15">
-        <v>60.624000000000002</v>
-      </c>
-      <c r="G15">
-        <v>8.1820000000000004</v>
-      </c>
-      <c r="H15">
-        <v>47.304000000000002</v>
-      </c>
-      <c r="I15">
-        <v>26.364000000000001</v>
-      </c>
-      <c r="J15">
-        <v>68.763000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>168.18199999999999</v>
-      </c>
-      <c r="B16">
-        <v>45.085000000000001</v>
-      </c>
-      <c r="C16">
-        <v>124.545</v>
-      </c>
-      <c r="D16">
-        <v>63.584000000000003</v>
-      </c>
-      <c r="E16">
-        <v>48.182000000000002</v>
-      </c>
-      <c r="F16">
-        <v>71.722999999999999</v>
-      </c>
-      <c r="G16">
-        <v>28.181999999999999</v>
-      </c>
-      <c r="H16">
-        <v>75.423000000000002</v>
-      </c>
-      <c r="I16">
-        <v>31.818000000000001</v>
-      </c>
-      <c r="J16">
-        <v>92.441999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>226.364</v>
-      </c>
-      <c r="B17">
-        <v>51.744</v>
-      </c>
-      <c r="C17">
-        <v>171.81800000000001</v>
-      </c>
-      <c r="D17">
-        <v>75.423000000000002</v>
-      </c>
-      <c r="E17">
-        <v>60.908999999999999</v>
-      </c>
-      <c r="F17">
-        <v>83.561999999999998</v>
-      </c>
-      <c r="G17">
-        <v>35.454999999999998</v>
-      </c>
-      <c r="H17">
-        <v>102.06100000000001</v>
-      </c>
-      <c r="I17">
-        <v>40.908999999999999</v>
-      </c>
-      <c r="J17">
-        <v>125.74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>282.72699999999998</v>
-      </c>
-      <c r="B18">
-        <v>56.183999999999997</v>
-      </c>
-      <c r="C18">
-        <v>226.364</v>
-      </c>
-      <c r="D18">
-        <v>83.561999999999998</v>
-      </c>
-      <c r="E18">
-        <v>86.364000000000004</v>
-      </c>
-      <c r="F18">
-        <v>99.840999999999994</v>
-      </c>
-      <c r="G18">
-        <v>62.726999999999997</v>
-      </c>
-      <c r="H18">
-        <v>135.35900000000001</v>
-      </c>
-      <c r="I18">
-        <v>46.363999999999997</v>
-      </c>
-      <c r="J18">
-        <v>149.41900000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>350</v>
-      </c>
-      <c r="B19">
-        <v>60.624000000000002</v>
-      </c>
-      <c r="C19">
-        <v>277.27300000000002</v>
-      </c>
-      <c r="D19">
-        <v>88.742000000000004</v>
-      </c>
-      <c r="E19">
-        <v>113.636</v>
-      </c>
-      <c r="F19">
-        <v>110.20099999999999</v>
-      </c>
-      <c r="G19">
-        <v>97.272999999999996</v>
-      </c>
-      <c r="H19">
+      <c r="C26">
+        <v>711.81799999999998</v>
+      </c>
+      <c r="D26">
+        <v>65.063000000000002</v>
+      </c>
+      <c r="E26">
+        <v>580.90899999999999</v>
+      </c>
+      <c r="F26">
         <v>158.298</v>
       </c>
-      <c r="I19">
-        <v>51.817999999999998</v>
-      </c>
-      <c r="J19">
-        <v>174.577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>411.81799999999998</v>
-      </c>
-      <c r="B20">
-        <v>62.103999999999999</v>
-      </c>
-      <c r="C20">
-        <v>339.09100000000001</v>
-      </c>
-      <c r="D20">
-        <v>93.182000000000002</v>
-      </c>
-      <c r="E20">
-        <v>146.364</v>
-      </c>
-      <c r="F20">
-        <v>120.56</v>
-      </c>
-      <c r="G20">
-        <v>164.54499999999999</v>
-      </c>
-      <c r="H20">
-        <v>180.49700000000001</v>
-      </c>
-      <c r="I20">
-        <v>59.091000000000001</v>
-      </c>
-      <c r="J20">
-        <v>198.256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>477.27300000000002</v>
-      </c>
-      <c r="B21">
-        <v>65.063000000000002</v>
-      </c>
-      <c r="C21">
-        <v>413.63600000000002</v>
-      </c>
-      <c r="D21">
-        <v>97.622</v>
-      </c>
-      <c r="E21">
-        <v>206.364</v>
-      </c>
-      <c r="F21">
-        <v>131.66</v>
-      </c>
-      <c r="G21">
-        <v>233.636</v>
-      </c>
-      <c r="H21">
-        <v>189.376</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>218.23500000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>530</v>
-      </c>
-      <c r="B22">
-        <v>68.022999999999996</v>
-      </c>
-      <c r="C22">
-        <v>479.09100000000001</v>
-      </c>
-      <c r="D22">
-        <v>100.581</v>
-      </c>
-      <c r="E22">
-        <v>266.36399999999998</v>
-      </c>
-      <c r="F22">
-        <v>138.31899999999999</v>
-      </c>
-      <c r="G22">
-        <v>306.36399999999998</v>
-      </c>
-      <c r="H22">
-        <v>196.77600000000001</v>
-      </c>
-      <c r="I22">
-        <v>97.272999999999996</v>
-      </c>
-      <c r="J22">
-        <v>235.994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>597.27300000000002</v>
-      </c>
-      <c r="B23">
-        <v>70.983000000000004</v>
-      </c>
-      <c r="C23">
-        <v>542.72699999999998</v>
-      </c>
-      <c r="D23">
-        <v>104.28100000000001</v>
-      </c>
-      <c r="E23">
-        <v>330</v>
-      </c>
-      <c r="F23">
-        <v>143.499</v>
-      </c>
-      <c r="G23">
-        <v>402.72699999999998</v>
-      </c>
-      <c r="H23">
-        <v>201.21600000000001</v>
-      </c>
-      <c r="I23">
-        <v>137.273</v>
-      </c>
-      <c r="J23">
-        <v>247.833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>620.90899999999999</v>
-      </c>
-      <c r="B24">
-        <v>59.884</v>
-      </c>
-      <c r="C24">
-        <v>600.90899999999999</v>
-      </c>
-      <c r="D24">
-        <v>107.241</v>
-      </c>
-      <c r="E24">
-        <v>393.63600000000002</v>
-      </c>
-      <c r="F24">
-        <v>147.93899999999999</v>
-      </c>
-      <c r="G24">
-        <v>459.09100000000001</v>
-      </c>
-      <c r="H24">
-        <v>205.655</v>
-      </c>
-      <c r="I24">
-        <v>184.54499999999999</v>
-      </c>
-      <c r="J24">
-        <v>255.97300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>662.72699999999998</v>
-      </c>
-      <c r="B25">
-        <v>52.484000000000002</v>
-      </c>
-      <c r="C25">
-        <v>622.72699999999998</v>
-      </c>
-      <c r="D25">
-        <v>90.221999999999994</v>
-      </c>
-      <c r="E25">
-        <v>459.09100000000001</v>
-      </c>
-      <c r="F25">
-        <v>152.37799999999999</v>
-      </c>
-      <c r="G25">
-        <v>517.27300000000002</v>
-      </c>
-      <c r="H25">
-        <v>208.61500000000001</v>
-      </c>
-      <c r="I25">
-        <v>239.09100000000001</v>
-      </c>
-      <c r="J25">
-        <v>263.37200000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>710</v>
-      </c>
-      <c r="B26">
-        <v>48.783999999999999</v>
-      </c>
-      <c r="C26">
-        <v>662.72699999999998</v>
-      </c>
-      <c r="D26">
-        <v>77.643000000000001</v>
-      </c>
-      <c r="E26">
-        <v>517.27300000000002</v>
-      </c>
-      <c r="F26">
-        <v>156.078</v>
-      </c>
       <c r="G26">
-        <v>555.45500000000004</v>
+        <v>602.72699999999998</v>
       </c>
       <c r="H26">
         <v>212.315</v>
       </c>
       <c r="I26">
-        <v>308.18200000000002</v>
+        <v>373.63600000000002</v>
       </c>
       <c r="J26">
-        <v>270.03199999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>275.21100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>755.45500000000004</v>
+        <v>804.54499999999996</v>
       </c>
       <c r="B27">
-        <v>43.604999999999997</v>
+        <v>40.645000000000003</v>
       </c>
       <c r="C27">
-        <v>711.81799999999998</v>
+        <v>762.72699999999998</v>
       </c>
       <c r="D27">
-        <v>65.063000000000002</v>
+        <v>58.404000000000003</v>
       </c>
       <c r="E27">
-        <v>580.90899999999999</v>
+        <v>600.90899999999999</v>
       </c>
       <c r="F27">
-        <v>158.298</v>
+        <v>155.33799999999999</v>
       </c>
       <c r="G27">
-        <v>602.72699999999998</v>
+        <v>608.18200000000002</v>
       </c>
       <c r="H27">
-        <v>212.315</v>
+        <v>186.416</v>
       </c>
       <c r="I27">
-        <v>373.63600000000002</v>
+        <v>440.90899999999999</v>
       </c>
       <c r="J27">
-        <v>275.21100000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>279.65100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>804.54499999999996</v>
+        <v>870</v>
       </c>
       <c r="B28">
+        <v>36.945</v>
+      </c>
+      <c r="C28">
+        <v>820.90899999999999</v>
+      </c>
+      <c r="D28">
+        <v>51.003999999999998</v>
+      </c>
+      <c r="E28">
+        <v>617.27300000000002</v>
+      </c>
+      <c r="F28">
+        <v>131.66</v>
+      </c>
+      <c r="G28">
+        <v>620.90899999999999</v>
+      </c>
+      <c r="H28">
+        <v>165.69800000000001</v>
+      </c>
+      <c r="I28">
+        <v>500.90899999999999</v>
+      </c>
+      <c r="J28">
+        <v>283.351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>930</v>
+      </c>
+      <c r="B29">
+        <v>33.984999999999999</v>
+      </c>
+      <c r="C29">
+        <v>882.72699999999998</v>
+      </c>
+      <c r="D29">
+        <v>45.825000000000003</v>
+      </c>
+      <c r="E29">
+        <v>642.72699999999998</v>
+      </c>
+      <c r="F29">
+        <v>108.721</v>
+      </c>
+      <c r="G29">
+        <v>633.63599999999997</v>
+      </c>
+      <c r="H29">
+        <v>142.75899999999999</v>
+      </c>
+      <c r="I29">
+        <v>553.63599999999997</v>
+      </c>
+      <c r="J29">
+        <v>286.31099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>997.27300000000002</v>
+      </c>
+      <c r="B30">
+        <v>32.505000000000003</v>
+      </c>
+      <c r="C30">
+        <v>937.27300000000002</v>
+      </c>
+      <c r="D30">
+        <v>42.865000000000002</v>
+      </c>
+      <c r="E30">
+        <v>686.36400000000003</v>
+      </c>
+      <c r="F30">
+        <v>93.182000000000002</v>
+      </c>
+      <c r="G30">
+        <v>660.90899999999999</v>
+      </c>
+      <c r="H30">
+        <v>122.04</v>
+      </c>
+      <c r="I30">
+        <v>620.90899999999999</v>
+      </c>
+      <c r="J30">
+        <v>290.75099999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1055.4549999999999</v>
+      </c>
+      <c r="B31">
+        <v>31.024999999999999</v>
+      </c>
+      <c r="C31">
+        <v>990</v>
+      </c>
+      <c r="D31">
         <v>40.645000000000003</v>
       </c>
-      <c r="C28">
-        <v>762.72699999999998</v>
-      </c>
-      <c r="D28">
-        <v>58.404000000000003</v>
-      </c>
-      <c r="E28">
-        <v>600.90899999999999</v>
-      </c>
-      <c r="F28">
-        <v>155.33799999999999</v>
-      </c>
-      <c r="G28">
-        <v>608.18200000000002</v>
-      </c>
-      <c r="H28">
-        <v>186.416</v>
-      </c>
-      <c r="I28">
-        <v>440.90899999999999</v>
-      </c>
-      <c r="J28">
-        <v>279.65100000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>870</v>
-      </c>
-      <c r="B29">
-        <v>36.945</v>
-      </c>
-      <c r="C29">
-        <v>820.90899999999999</v>
-      </c>
-      <c r="D29">
-        <v>51.003999999999998</v>
-      </c>
-      <c r="E29">
-        <v>617.27300000000002</v>
-      </c>
-      <c r="F29">
-        <v>131.66</v>
-      </c>
-      <c r="G29">
-        <v>620.90899999999999</v>
-      </c>
-      <c r="H29">
-        <v>165.69800000000001</v>
-      </c>
-      <c r="I29">
-        <v>500.90899999999999</v>
-      </c>
-      <c r="J29">
-        <v>283.351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>930</v>
-      </c>
-      <c r="B30">
-        <v>33.984999999999999</v>
-      </c>
-      <c r="C30">
-        <v>882.72699999999998</v>
-      </c>
-      <c r="D30">
-        <v>45.825000000000003</v>
-      </c>
-      <c r="E30">
-        <v>642.72699999999998</v>
-      </c>
-      <c r="F30">
-        <v>108.721</v>
-      </c>
-      <c r="G30">
-        <v>633.63599999999997</v>
-      </c>
-      <c r="H30">
-        <v>142.75899999999999</v>
-      </c>
-      <c r="I30">
-        <v>553.63599999999997</v>
-      </c>
-      <c r="J30">
-        <v>286.31099999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>997.27300000000002</v>
-      </c>
-      <c r="B31">
-        <v>32.505000000000003</v>
-      </c>
-      <c r="C31">
-        <v>937.27300000000002</v>
-      </c>
-      <c r="D31">
-        <v>42.865000000000002</v>
-      </c>
       <c r="E31">
-        <v>686.36400000000003</v>
+        <v>735.45500000000004</v>
       </c>
       <c r="F31">
-        <v>93.182000000000002</v>
+        <v>78.382999999999996</v>
       </c>
       <c r="G31">
-        <v>660.90899999999999</v>
+        <v>699.09100000000001</v>
       </c>
       <c r="H31">
-        <v>122.04</v>
+        <v>100.581</v>
       </c>
       <c r="I31">
-        <v>620.90899999999999</v>
+        <v>624.54499999999996</v>
       </c>
       <c r="J31">
-        <v>290.75099999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>269.29199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1055.4549999999999</v>
+        <v>1111.818</v>
       </c>
       <c r="B32">
-        <v>31.024999999999999</v>
+        <v>29.545000000000002</v>
       </c>
       <c r="C32">
-        <v>990</v>
+        <v>1046.364</v>
       </c>
       <c r="D32">
-        <v>40.645000000000003</v>
+        <v>37.685000000000002</v>
       </c>
       <c r="E32">
-        <v>735.45500000000004</v>
+        <v>799.09100000000001</v>
       </c>
       <c r="F32">
-        <v>78.382999999999996</v>
+        <v>66.543000000000006</v>
       </c>
       <c r="G32">
-        <v>699.09100000000001</v>
+        <v>739.09100000000001</v>
       </c>
       <c r="H32">
-        <v>100.581</v>
+        <v>88.001999999999995</v>
       </c>
       <c r="I32">
-        <v>624.54499999999996</v>
+        <v>630</v>
       </c>
       <c r="J32">
-        <v>269.29199999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>244.87299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1111.818</v>
+        <v>1173.636</v>
       </c>
       <c r="B33">
         <v>29.545000000000002</v>
       </c>
       <c r="C33">
-        <v>1046.364</v>
+        <v>1099.0909999999999</v>
       </c>
       <c r="D33">
-        <v>37.685000000000002</v>
+        <v>36.945</v>
       </c>
       <c r="E33">
-        <v>799.09100000000001</v>
+        <v>859.09100000000001</v>
       </c>
       <c r="F33">
-        <v>66.543000000000006</v>
+        <v>57.664000000000001</v>
       </c>
       <c r="G33">
-        <v>739.09100000000001</v>
+        <v>802.72699999999998</v>
       </c>
       <c r="H33">
-        <v>88.001999999999995</v>
+        <v>72.462999999999994</v>
       </c>
       <c r="I33">
-        <v>630</v>
+        <v>637.27300000000002</v>
       </c>
       <c r="J33">
-        <v>244.87299999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>216.01499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1173.636</v>
+        <v>1230</v>
       </c>
       <c r="B34">
-        <v>29.545000000000002</v>
+        <v>28.805</v>
       </c>
       <c r="C34">
-        <v>1099.0909999999999</v>
+        <v>1151.818</v>
       </c>
       <c r="D34">
-        <v>36.945</v>
+        <v>33.984999999999999</v>
       </c>
       <c r="E34">
-        <v>859.09100000000001</v>
+        <v>920.90899999999999</v>
       </c>
       <c r="F34">
-        <v>57.664000000000001</v>
+        <v>53.223999999999997</v>
       </c>
       <c r="G34">
-        <v>802.72699999999998</v>
+        <v>868.18200000000002</v>
       </c>
       <c r="H34">
-        <v>72.462999999999994</v>
+        <v>62.103999999999999</v>
       </c>
       <c r="I34">
-        <v>637.27300000000002</v>
+        <v>650</v>
       </c>
       <c r="J34">
-        <v>216.01499999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>190.11600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="B35">
-        <v>28.805</v>
+        <v>26.585999999999999</v>
       </c>
       <c r="C35">
-        <v>1151.818</v>
+        <v>1220.9090000000001</v>
       </c>
       <c r="D35">
         <v>33.984999999999999</v>
       </c>
       <c r="E35">
-        <v>920.90899999999999</v>
+        <v>979.09100000000001</v>
       </c>
       <c r="F35">
-        <v>53.223999999999997</v>
+        <v>49.524000000000001</v>
       </c>
       <c r="G35">
-        <v>868.18200000000002</v>
+        <v>924.54499999999996</v>
       </c>
       <c r="H35">
-        <v>62.103999999999999</v>
+        <v>56.923999999999999</v>
       </c>
       <c r="I35">
-        <v>650</v>
+        <v>662.72699999999998</v>
       </c>
       <c r="J35">
-        <v>190.11600000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>166.43799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1270</v>
+        <v>1346.364</v>
       </c>
       <c r="B36">
-        <v>26.585999999999999</v>
+        <v>25.846</v>
       </c>
       <c r="C36">
-        <v>1220.9090000000001</v>
+        <v>1279.0909999999999</v>
       </c>
       <c r="D36">
-        <v>33.984999999999999</v>
+        <v>33.244999999999997</v>
       </c>
       <c r="E36">
-        <v>979.09100000000001</v>
+        <v>1040.9090000000001</v>
       </c>
       <c r="F36">
-        <v>49.524000000000001</v>
+        <v>46.564</v>
       </c>
       <c r="G36">
-        <v>924.54499999999996</v>
+        <v>973.63599999999997</v>
       </c>
       <c r="H36">
-        <v>56.923999999999999</v>
+        <v>53.963999999999999</v>
       </c>
       <c r="I36">
-        <v>662.72699999999998</v>
+        <v>686.36400000000003</v>
       </c>
       <c r="J36">
-        <v>166.43799999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>142.75899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1346.364</v>
+        <v>1408.182</v>
       </c>
       <c r="B37">
         <v>25.846</v>
       </c>
       <c r="C37">
-        <v>1279.0909999999999</v>
+        <v>1337.2729999999999</v>
       </c>
       <c r="D37">
-        <v>33.244999999999997</v>
+        <v>31.765000000000001</v>
       </c>
       <c r="E37">
-        <v>1040.9090000000001</v>
+        <v>1108.182</v>
       </c>
       <c r="F37">
-        <v>46.564</v>
+        <v>43.604999999999997</v>
       </c>
       <c r="G37">
-        <v>973.63599999999997</v>
+        <v>1039.0909999999999</v>
       </c>
       <c r="H37">
-        <v>53.963999999999999</v>
+        <v>48.783999999999999</v>
       </c>
       <c r="I37">
-        <v>686.36400000000003</v>
+        <v>720.90899999999999</v>
       </c>
       <c r="J37">
-        <v>142.75899999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>122.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1408.182</v>
+        <v>1473.636</v>
       </c>
       <c r="B38">
-        <v>25.846</v>
+        <v>24.366</v>
       </c>
       <c r="C38">
-        <v>1337.2729999999999</v>
+        <v>1388.182</v>
       </c>
       <c r="D38">
-        <v>31.765000000000001</v>
+        <v>31.024999999999999</v>
       </c>
       <c r="E38">
-        <v>1108.182</v>
+        <v>1171.818</v>
       </c>
       <c r="F38">
-        <v>43.604999999999997</v>
+        <v>41.384999999999998</v>
       </c>
       <c r="G38">
-        <v>1039.0909999999999</v>
+        <v>1102.7270000000001</v>
       </c>
       <c r="H38">
-        <v>48.783999999999999</v>
+        <v>45.825000000000003</v>
       </c>
       <c r="I38">
-        <v>720.90899999999999</v>
+        <v>760.90899999999999</v>
       </c>
       <c r="J38">
-        <v>122.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>104.28100000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1473.636</v>
+        <v>1526.364</v>
       </c>
       <c r="B39">
         <v>24.366</v>
       </c>
       <c r="C39">
-        <v>1388.182</v>
+        <v>1446.364</v>
       </c>
       <c r="D39">
-        <v>31.024999999999999</v>
+        <v>29.545000000000002</v>
       </c>
       <c r="E39">
-        <v>1171.818</v>
+        <v>1239.0909999999999</v>
       </c>
       <c r="F39">
-        <v>41.384999999999998</v>
+        <v>39.164999999999999</v>
       </c>
       <c r="G39">
-        <v>1102.7270000000001</v>
+        <v>1173.636</v>
       </c>
       <c r="H39">
-        <v>45.825000000000003</v>
+        <v>42.865000000000002</v>
       </c>
       <c r="I39">
-        <v>760.90899999999999</v>
+        <v>817.27300000000002</v>
       </c>
       <c r="J39">
-        <v>104.28100000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>90.962000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1526.364</v>
+        <v>1590</v>
       </c>
       <c r="B40">
-        <v>24.366</v>
+        <v>23.626000000000001</v>
       </c>
       <c r="C40">
-        <v>1446.364</v>
+        <v>1495.4549999999999</v>
       </c>
       <c r="D40">
         <v>29.545000000000002</v>
       </c>
       <c r="E40">
-        <v>1239.0909999999999</v>
+        <v>1302.7270000000001</v>
       </c>
       <c r="F40">
+        <v>36.945</v>
+      </c>
+      <c r="G40">
+        <v>1244.5450000000001</v>
+      </c>
+      <c r="H40">
+        <v>40.645000000000003</v>
+      </c>
+      <c r="I40">
+        <v>873.63599999999997</v>
+      </c>
+      <c r="J40">
+        <v>79.863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1637.2729999999999</v>
+      </c>
+      <c r="B41">
+        <v>22.146000000000001</v>
+      </c>
+      <c r="C41">
+        <v>1553.636</v>
+      </c>
+      <c r="D41">
+        <v>28.805</v>
+      </c>
+      <c r="E41">
+        <v>1368.182</v>
+      </c>
+      <c r="F41">
+        <v>35.465000000000003</v>
+      </c>
+      <c r="G41">
+        <v>1310</v>
+      </c>
+      <c r="H41">
         <v>39.164999999999999</v>
       </c>
-      <c r="G40">
-        <v>1173.636</v>
-      </c>
-      <c r="H40">
-        <v>42.865000000000002</v>
-      </c>
-      <c r="I40">
-        <v>817.27300000000002</v>
-      </c>
-      <c r="J40">
-        <v>90.962000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <v>1590</v>
-      </c>
-      <c r="B41">
-        <v>23.626000000000001</v>
-      </c>
-      <c r="C41">
+      <c r="I41">
+        <v>942.72699999999998</v>
+      </c>
+      <c r="J41">
+        <v>71.722999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1693.636</v>
+      </c>
+      <c r="B42">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1615.4549999999999</v>
+      </c>
+      <c r="D42">
+        <v>28.065999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1433.636</v>
+      </c>
+      <c r="F42">
+        <v>33.984999999999999</v>
+      </c>
+      <c r="G42">
+        <v>1395.4549999999999</v>
+      </c>
+      <c r="H42">
+        <v>36.945</v>
+      </c>
+      <c r="I42">
+        <v>1010</v>
+      </c>
+      <c r="J42">
+        <v>66.543000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1662.7270000000001</v>
+      </c>
+      <c r="D43">
+        <v>28.805</v>
+      </c>
+      <c r="E43">
         <v>1495.4549999999999</v>
       </c>
-      <c r="D41">
-        <v>29.545000000000002</v>
-      </c>
-      <c r="E41">
-        <v>1302.7270000000001</v>
-      </c>
-      <c r="F41">
-        <v>36.945</v>
-      </c>
-      <c r="G41">
-        <v>1244.5450000000001</v>
-      </c>
-      <c r="H41">
-        <v>40.645000000000003</v>
-      </c>
-      <c r="I41">
-        <v>873.63599999999997</v>
-      </c>
-      <c r="J41">
-        <v>79.863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>1637.2729999999999</v>
-      </c>
-      <c r="B42">
-        <v>22.146000000000001</v>
-      </c>
-      <c r="C42">
-        <v>1553.636</v>
-      </c>
-      <c r="D42">
-        <v>28.805</v>
-      </c>
-      <c r="E42">
-        <v>1368.182</v>
-      </c>
-      <c r="F42">
-        <v>35.465000000000003</v>
-      </c>
-      <c r="G42">
-        <v>1310</v>
-      </c>
-      <c r="H42">
-        <v>39.164999999999999</v>
-      </c>
-      <c r="I42">
-        <v>942.72699999999998</v>
-      </c>
-      <c r="J42">
-        <v>71.722999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1693.636</v>
-      </c>
-      <c r="B43">
-        <v>21.405999999999999</v>
-      </c>
-      <c r="C43">
-        <v>1615.4549999999999</v>
-      </c>
-      <c r="D43">
-        <v>28.065999999999999</v>
-      </c>
-      <c r="E43">
-        <v>1433.636</v>
-      </c>
       <c r="F43">
-        <v>33.984999999999999</v>
+        <v>33.244999999999997</v>
       </c>
       <c r="G43">
-        <v>1395.4549999999999</v>
+        <v>1459.0909999999999</v>
       </c>
       <c r="H43">
         <v>36.945</v>
       </c>
       <c r="I43">
-        <v>1010</v>
+        <v>1082.7270000000001</v>
       </c>
       <c r="J43">
-        <v>66.543000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>62.103999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>1662.7270000000001</v>
+        <v>1697.2729999999999</v>
       </c>
       <c r="D44">
-        <v>28.805</v>
+        <v>28.065999999999999</v>
       </c>
       <c r="E44">
-        <v>1495.4549999999999</v>
+        <v>1560.9090000000001</v>
       </c>
       <c r="F44">
-        <v>33.244999999999997</v>
+        <v>32.505000000000003</v>
       </c>
       <c r="G44">
-        <v>1459.0909999999999</v>
+        <v>1511.818</v>
       </c>
       <c r="H44">
         <v>36.945</v>
       </c>
       <c r="I44">
-        <v>1082.7270000000001</v>
+        <v>1150</v>
       </c>
       <c r="J44">
-        <v>62.103999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="C45">
-        <v>1697.2729999999999</v>
-      </c>
-      <c r="D45">
-        <v>28.065999999999999</v>
-      </c>
+        <v>57.664000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45">
-        <v>1560.9090000000001</v>
+        <v>1624.5450000000001</v>
       </c>
       <c r="F45">
-        <v>32.505000000000003</v>
+        <v>31.765000000000001</v>
       </c>
       <c r="G45">
-        <v>1511.818</v>
+        <v>1566.364</v>
       </c>
       <c r="H45">
-        <v>36.945</v>
+        <v>35.465000000000003</v>
       </c>
       <c r="I45">
-        <v>1150</v>
+        <v>1210</v>
       </c>
       <c r="J45">
-        <v>57.664000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>56.183999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E46">
-        <v>1624.5450000000001</v>
+        <v>1671.818</v>
       </c>
       <c r="F46">
-        <v>31.765000000000001</v>
+        <v>31.024999999999999</v>
       </c>
       <c r="G46">
-        <v>1566.364</v>
+        <v>1611.818</v>
       </c>
       <c r="H46">
         <v>35.465000000000003</v>
       </c>
       <c r="I46">
-        <v>1210</v>
+        <v>1268.182</v>
       </c>
       <c r="J46">
-        <v>56.183999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="E47">
-        <v>1671.818</v>
-      </c>
-      <c r="F47">
-        <v>31.024999999999999</v>
-      </c>
+        <v>53.223999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G47">
-        <v>1611.818</v>
+        <v>1664.5450000000001</v>
       </c>
       <c r="H47">
+        <v>33.984999999999999</v>
+      </c>
+      <c r="I47">
+        <v>1326.364</v>
+      </c>
+      <c r="J47">
+        <v>51.744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1695.4549999999999</v>
+      </c>
+      <c r="H48">
         <v>35.465000000000003</v>
       </c>
-      <c r="I47">
-        <v>1268.182</v>
-      </c>
-      <c r="J47">
-        <v>53.223999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="G48">
-        <v>1664.5450000000001</v>
-      </c>
-      <c r="H48">
-        <v>33.984999999999999</v>
-      </c>
       <c r="I48">
-        <v>1326.364</v>
+        <v>1393.636</v>
       </c>
       <c r="J48">
         <v>51.744</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
-      <c r="G49">
-        <v>1695.4549999999999</v>
-      </c>
-      <c r="H49">
-        <v>35.465000000000003</v>
-      </c>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I49">
-        <v>1393.636</v>
+        <v>1466.364</v>
       </c>
       <c r="J49">
-        <v>51.744</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
+        <v>48.043999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50">
-        <v>1466.364</v>
+        <v>1539.0909999999999</v>
       </c>
       <c r="J50">
-        <v>48.043999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10">
+        <v>47.304000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51">
-        <v>1539.0909999999999</v>
+        <v>1602.7270000000001</v>
       </c>
       <c r="J51">
-        <v>47.304000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
+        <v>46.564</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I52">
-        <v>1602.7270000000001</v>
+        <v>1697.2729999999999</v>
       </c>
       <c r="J52">
-        <v>46.564</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
-      <c r="I53">
-        <v>1697.2729999999999</v>
-      </c>
-      <c r="J53">
         <v>45.085000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
